--- a/medicine/Mort/Jean-François_André_(biker)/Jean-François_André_(biker).xlsx
+++ b/medicine/Mort/Jean-François_André_(biker)/Jean-François_André_(biker).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Andr%C3%A9_(biker)</t>
+          <t>Jean-François_André_(biker)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François André, né le 23 juin 1961 à Bourg-de-Péage dans le département de la Drôme est un biker français, président du moto-club MC Drôme, mort assassiné le 6 août 2003 à Anneyron dans le département de la Drôme. Ses assassins n'ont jamais été identifiés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Andr%C3%A9_(biker)</t>
+          <t>Jean-François_André_(biker)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,51 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François André, issu d'un milieu modeste, fils de Marcel André, naît le 23 juin 1961 à Bourg-de-Péage dans le département de la Drôme. Il a une sœur prénommée Jocelyne et est le père d'une fille, Jennifer, née en 1985. Son surnom La Pie vient de son éternel habillement noir et blanc.
 Jean-François André développe une passion pour la moto dès son enfance. A quatorze ans, il possède son tout premier deux-roues, une mobylette. 
 En 1985, Jean-François André crée le bar nommé le RN7, près de la Route nationale 7 dans le hameau du Creux de la Thine dans le département de la Drôme grâce aux fruits d'un héritage et y inaugure son moto-club, le MC Drôme dont il est le président. La Pie organise plusieurs concentrations de motos rendant le bar et le moto-club populaires dans le monde des bikers de la région, de France et d'Europe, sur un axe routier fréquenté.
-Mort
-Jean-François André est assassiné par balles lorsqu'il arrive à son domicile d'Anneyron le soir du 6 août 2003, alors que lui ont été octroyées officiellement onze jours plus tôt, à Manchester au Royaume-Uni, les couleurs des Outlaws, moto-club concurrent de celui des Hells Angels, pour la création du premier chapitre en France de ce moto-club en 2003. Son assassinat est le point de départ de l'affaire criminelle Jean-François André.
-Les obsèques de Jean-François André se déroulent à l'église de Quintenas en présence de plus de 2 000 motards venus de toute l'Europe. Son cercueil est porté par des bikers de quatre nationalités différentes, signe d'un hommage réservé à un chef. La Pie repose dans le caveau de la famille André au cimetière de la commune[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-François_André_(biker)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Andr%C3%A9_(biker)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-François André est assassiné par balles lorsqu'il arrive à son domicile d'Anneyron le soir du 6 août 2003, alors que lui ont été octroyées officiellement onze jours plus tôt, à Manchester au Royaume-Uni, les couleurs des Outlaws, moto-club concurrent de celui des Hells Angels, pour la création du premier chapitre en France de ce moto-club en 2003. Son assassinat est le point de départ de l'affaire criminelle Jean-François André.
+Les obsèques de Jean-François André se déroulent à l'église de Quintenas en présence de plus de 2 000 motards venus de toute l'Europe. Son cercueil est porté par des bikers de quatre nationalités différentes, signe d'un hommage réservé à un chef. La Pie repose dans le caveau de la famille André au cimetière de la commune.
 </t>
         </is>
       </c>
